--- a/共享调度器 on qemu性能测试 v2.0.xlsx
+++ b/共享调度器 on qemu性能测试 v2.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workSpace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workSpace\SharedScheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425A733F-8488-4CE3-BC4D-5A738375334B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD84235-F50B-42BD-8B4C-23C2542D9398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2293,7 +2293,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2403,27 +2403,27 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>189</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>347</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>342</c:v>
+                  <c:v>781</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>298</c:v>
+                  <c:v>1490</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>285</c:v>
+                  <c:v>2513</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>301</c:v>
+                  <c:v>3301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-568B-49BB-B361-0AACB0F810E3}"/>
@@ -2512,30 +2512,30 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>182</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>327</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>370</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>289</c:v>
+                  <c:v>1461</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>282</c:v>
+                  <c:v>2367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>292</c:v>
+                  <c:v>2632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-568B-49BB-B361-0AACB0F810E3}"/>
@@ -2630,24 +2630,24 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>399</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>792</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1546</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2421</c:v>
+                  <c:v>3188</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2656</c:v>
+                  <c:v>6327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-568B-49BB-B361-0AACB0F810E3}"/>
@@ -2736,30 +2736,30 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>393</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>761</c:v>
+                  <c:v>784</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1478</c:v>
+                  <c:v>1568</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2363</c:v>
+                  <c:v>3136</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2091</c:v>
+                  <c:v>6138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-568B-49BB-B361-0AACB0F810E3}"/>
@@ -3225,28 +3225,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>791</c:v>
+                  <c:v>866</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1079</c:v>
+                  <c:v>1180</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6541</c:v>
+                  <c:v>1660</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16499</c:v>
+                  <c:v>2401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143680</c:v>
+                  <c:v>4227</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>470232</c:v>
+                  <c:v>9829</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1152684</c:v>
+                  <c:v>32399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2478325</c:v>
+                  <c:v>108451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3336,28 +3336,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1431</c:v>
+                  <c:v>1548</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1710</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17790</c:v>
+                  <c:v>2332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24195</c:v>
+                  <c:v>3150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>124287</c:v>
+                  <c:v>5531</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>494754</c:v>
+                  <c:v>12249</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1170534</c:v>
+                  <c:v>40959</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2513742</c:v>
+                  <c:v>163202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3858,28 +3858,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>700</c:v>
+                  <c:v>994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>770</c:v>
+                  <c:v>1149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1134</c:v>
+                  <c:v>1274</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1475</c:v>
+                  <c:v>1352</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2176</c:v>
+                  <c:v>1397</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6288</c:v>
+                  <c:v>1628</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37742</c:v>
+                  <c:v>1799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>165954</c:v>
+                  <c:v>2466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3969,28 +3969,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1376</c:v>
+                  <c:v>1782</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1587</c:v>
+                  <c:v>2122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1878</c:v>
+                  <c:v>1962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2223</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5501</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10059</c:v>
+                  <c:v>2511</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39600</c:v>
+                  <c:v>2928</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>260734</c:v>
+                  <c:v>5721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4492,22 +4492,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2009</c:v>
+                  <c:v>2310</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2566</c:v>
+                  <c:v>3593</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4197</c:v>
+                  <c:v>10877</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11047</c:v>
+                  <c:v>100481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46467</c:v>
+                  <c:v>1822408</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>331123</c:v>
+                  <c:v>5082712</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5114446</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5148450</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4598,28 +4604,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2693</c:v>
+                  <c:v>2706</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3036</c:v>
+                  <c:v>3163</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3419</c:v>
+                  <c:v>4445</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4600</c:v>
+                  <c:v>11506</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8006</c:v>
+                  <c:v>118081</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14083</c:v>
+                  <c:v>2622222</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35530</c:v>
+                  <c:v>5093735</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>166514</c:v>
+                  <c:v>5127053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4710,28 +4716,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3463</c:v>
+                  <c:v>3433</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3777</c:v>
+                  <c:v>3985</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3937</c:v>
+                  <c:v>5190</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4359</c:v>
+                  <c:v>10123</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5221</c:v>
+                  <c:v>52411</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5814</c:v>
+                  <c:v>775682</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9922</c:v>
+                  <c:v>4952885</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20273</c:v>
+                  <c:v>5111355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4820,28 +4826,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>107206</c:v>
+                  <c:v>4154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111606</c:v>
+                  <c:v>4652</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>117506</c:v>
+                  <c:v>5689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>134996</c:v>
+                  <c:v>8314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>156461</c:v>
+                  <c:v>19759</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>169862</c:v>
+                  <c:v>115298</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>188701</c:v>
+                  <c:v>955704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>244605</c:v>
+                  <c:v>4768472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5344,30 +5350,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1739</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2283</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3930</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10191</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32760</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>259212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>465496</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>771554</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5456,30 +5438,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2340</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2235</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2640</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4249</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7309</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11452</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26030</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>82184</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5568,30 +5526,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3297</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3431</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3309</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3534</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4465</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4490</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8106</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15210</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5678,30 +5612,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>202280</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>207242</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>189066</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>220125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>232817</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>233787</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>247760</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>267210</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6196,25 +6106,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1538</c:v>
+                  <c:v>1532</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1521</c:v>
+                  <c:v>1496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1479</c:v>
+                  <c:v>1326</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1315</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>835</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>213</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>16</c:v>
@@ -6308,28 +6218,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1511</c:v>
+                  <c:v>1519</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1504</c:v>
+                  <c:v>1506</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1484</c:v>
+                  <c:v>1474</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1459</c:v>
+                  <c:v>1315</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1380</c:v>
+                  <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1251</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>940</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>375</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6420,28 +6330,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1481</c:v>
+                  <c:v>1496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1468</c:v>
+                  <c:v>1485</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1471</c:v>
+                  <c:v>1453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1451</c:v>
+                  <c:v>1342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1437</c:v>
+                  <c:v>792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1412</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1315</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1130</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6530,28 +6440,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>521</c:v>
+                  <c:v>1478</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>508</c:v>
+                  <c:v>1467</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>496</c:v>
+                  <c:v>1442</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>440</c:v>
+                  <c:v>1382</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>404</c:v>
+                  <c:v>1160</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>390</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>360</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>290</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11840,8 +11750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U170" sqref="U170"/>
+    <sheetView tabSelected="1" topLeftCell="E158" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="S89" sqref="S89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12236,22 +12146,22 @@
         <v>100</v>
       </c>
       <c r="D76">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E76">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="F76">
-        <v>342</v>
+        <v>781</v>
       </c>
       <c r="G76">
-        <v>298</v>
+        <v>1490</v>
       </c>
       <c r="H76">
-        <v>285</v>
+        <v>2513</v>
       </c>
       <c r="I76">
-        <v>301</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -12262,25 +12172,25 @@
         <v>50</v>
       </c>
       <c r="C77">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D77">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E77">
-        <v>327</v>
+        <v>392</v>
       </c>
       <c r="F77">
-        <v>370</v>
+        <v>768</v>
       </c>
       <c r="G77">
-        <v>289</v>
+        <v>1461</v>
       </c>
       <c r="H77">
-        <v>282</v>
+        <v>2367</v>
       </c>
       <c r="I77">
-        <v>292</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -12297,19 +12207,19 @@
         <v>200</v>
       </c>
       <c r="E78">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F78">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="G78">
-        <v>1546</v>
+        <v>1600</v>
       </c>
       <c r="H78">
-        <v>2421</v>
+        <v>3188</v>
       </c>
       <c r="I78">
-        <v>2656</v>
+        <v>6327</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -12320,25 +12230,25 @@
         <v>50</v>
       </c>
       <c r="C79">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D79">
         <v>196</v>
       </c>
       <c r="E79">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F79">
-        <v>761</v>
+        <v>784</v>
       </c>
       <c r="G79">
-        <v>1478</v>
+        <v>1568</v>
       </c>
       <c r="H79">
-        <v>2363</v>
+        <v>3136</v>
       </c>
       <c r="I79">
-        <v>2091</v>
+        <v>6138</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -12380,28 +12290,28 @@
         <v>11</v>
       </c>
       <c r="B102">
-        <v>791</v>
+        <v>866</v>
       </c>
       <c r="C102">
-        <v>1079</v>
+        <v>1180</v>
       </c>
       <c r="D102">
-        <v>6541</v>
+        <v>1660</v>
       </c>
       <c r="E102">
-        <v>16499</v>
+        <v>2401</v>
       </c>
       <c r="F102">
-        <v>143680</v>
+        <v>4227</v>
       </c>
       <c r="G102">
-        <v>470232</v>
+        <v>9829</v>
       </c>
       <c r="H102">
-        <v>1152684</v>
+        <v>32399</v>
       </c>
       <c r="I102">
-        <v>2478325</v>
+        <v>108451</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -12409,28 +12319,28 @@
         <v>12</v>
       </c>
       <c r="B103">
-        <v>1431</v>
+        <v>1548</v>
       </c>
       <c r="C103">
-        <v>1710</v>
+        <v>2021</v>
       </c>
       <c r="D103">
-        <v>17790</v>
+        <v>2332</v>
       </c>
       <c r="E103">
-        <v>24195</v>
+        <v>3150</v>
       </c>
       <c r="F103">
-        <v>124287</v>
+        <v>5531</v>
       </c>
       <c r="G103">
-        <v>494754</v>
+        <v>12249</v>
       </c>
       <c r="H103">
-        <v>1170534</v>
+        <v>40959</v>
       </c>
       <c r="I103">
-        <v>2513742</v>
+        <v>163202</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -12467,28 +12377,28 @@
         <v>13</v>
       </c>
       <c r="B108">
-        <v>700</v>
+        <v>994</v>
       </c>
       <c r="C108">
-        <v>770</v>
+        <v>1149</v>
       </c>
       <c r="D108">
-        <v>1134</v>
+        <v>1274</v>
       </c>
       <c r="E108">
-        <v>1475</v>
+        <v>1352</v>
       </c>
       <c r="F108">
-        <v>2176</v>
+        <v>1397</v>
       </c>
       <c r="G108">
-        <v>6288</v>
+        <v>1628</v>
       </c>
       <c r="H108">
-        <v>37742</v>
+        <v>1799</v>
       </c>
       <c r="I108">
-        <v>165954</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -12496,28 +12406,28 @@
         <v>14</v>
       </c>
       <c r="B109">
-        <v>1376</v>
+        <v>1782</v>
       </c>
       <c r="C109">
-        <v>1587</v>
+        <v>2122</v>
       </c>
       <c r="D109">
-        <v>1878</v>
+        <v>1962</v>
       </c>
       <c r="E109">
-        <v>2223</v>
+        <v>2034</v>
       </c>
       <c r="F109">
-        <v>5501</v>
+        <v>2250</v>
       </c>
       <c r="G109">
-        <v>10059</v>
+        <v>2511</v>
       </c>
       <c r="H109">
-        <v>39600</v>
+        <v>2928</v>
       </c>
       <c r="I109">
-        <v>260734</v>
+        <v>5721</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -12559,22 +12469,28 @@
         <v>18</v>
       </c>
       <c r="B129">
-        <v>2009</v>
+        <v>2310</v>
       </c>
       <c r="C129">
-        <v>2566</v>
+        <v>3593</v>
       </c>
       <c r="D129">
-        <v>4197</v>
+        <v>10877</v>
       </c>
       <c r="E129">
-        <v>11047</v>
+        <v>100481</v>
       </c>
       <c r="F129">
-        <v>46467</v>
+        <v>1822408</v>
       </c>
       <c r="G129">
-        <v>331123</v>
+        <v>5082712</v>
+      </c>
+      <c r="H129">
+        <v>5114446</v>
+      </c>
+      <c r="I129">
+        <v>5148450</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -12582,29 +12498,28 @@
         <v>19</v>
       </c>
       <c r="B130">
-        <v>2693</v>
+        <v>2706</v>
       </c>
       <c r="C130">
-        <v>3036</v>
+        <v>3163</v>
       </c>
       <c r="D130">
-        <v>3419</v>
+        <v>4445</v>
       </c>
       <c r="E130">
-        <v>4600</v>
+        <v>11506</v>
       </c>
       <c r="F130">
-        <v>8006</v>
+        <v>118081</v>
       </c>
       <c r="G130">
-        <v>14083</v>
+        <v>2622222</v>
       </c>
       <c r="H130">
-        <v>35530</v>
+        <v>5093735</v>
       </c>
       <c r="I130">
-        <f>166514</f>
-        <v>166514</v>
+        <v>5127053</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -12612,29 +12527,28 @@
         <v>20</v>
       </c>
       <c r="B131">
-        <v>3463</v>
+        <v>3433</v>
       </c>
       <c r="C131">
-        <v>3777</v>
+        <v>3985</v>
       </c>
       <c r="D131">
-        <v>3937</v>
+        <v>5190</v>
       </c>
       <c r="E131">
-        <v>4359</v>
+        <v>10123</v>
       </c>
       <c r="F131">
-        <v>5221</v>
+        <v>52411</v>
       </c>
       <c r="G131">
-        <v>5814</v>
+        <v>775682</v>
       </c>
       <c r="H131">
-        <v>9922</v>
+        <v>4952885</v>
       </c>
       <c r="I131">
-        <f>20273</f>
-        <v>20273</v>
+        <v>5111355</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -12642,29 +12556,28 @@
         <v>21</v>
       </c>
       <c r="B132">
-        <v>107206</v>
+        <v>4154</v>
       </c>
       <c r="C132">
-        <v>111606</v>
+        <v>4652</v>
       </c>
       <c r="D132">
-        <v>117506</v>
+        <v>5689</v>
       </c>
       <c r="E132">
-        <v>134996</v>
+        <v>8314</v>
       </c>
       <c r="F132">
-        <v>156461</v>
+        <v>19759</v>
       </c>
       <c r="G132">
-        <v>169862</v>
+        <v>115298</v>
       </c>
       <c r="H132">
-        <v>188701</v>
+        <v>955704</v>
       </c>
       <c r="I132">
-        <f>244605</f>
-        <v>244605</v>
+        <v>4768472</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -12705,119 +12618,21 @@
       <c r="A150" t="s">
         <v>18</v>
       </c>
-      <c r="B150">
-        <v>1739</v>
-      </c>
-      <c r="C150">
-        <v>2283</v>
-      </c>
-      <c r="D150">
-        <v>3930</v>
-      </c>
-      <c r="E150">
-        <v>10191</v>
-      </c>
-      <c r="F150">
-        <v>32760</v>
-      </c>
-      <c r="G150">
-        <v>259212</v>
-      </c>
-      <c r="H150">
-        <v>465496</v>
-      </c>
-      <c r="I150">
-        <v>771554</v>
-      </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>19</v>
       </c>
-      <c r="B151">
-        <v>2340</v>
-      </c>
-      <c r="C151">
-        <v>2235</v>
-      </c>
-      <c r="D151">
-        <v>2640</v>
-      </c>
-      <c r="E151">
-        <v>4249</v>
-      </c>
-      <c r="F151">
-        <v>7309</v>
-      </c>
-      <c r="G151">
-        <v>11452</v>
-      </c>
-      <c r="H151">
-        <v>26030</v>
-      </c>
-      <c r="I151">
-        <f>82184</f>
-        <v>82184</v>
-      </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>20</v>
       </c>
-      <c r="B152">
-        <v>3297</v>
-      </c>
-      <c r="C152">
-        <v>3431</v>
-      </c>
-      <c r="D152">
-        <v>3309</v>
-      </c>
-      <c r="E152">
-        <v>3534</v>
-      </c>
-      <c r="F152">
-        <v>4465</v>
-      </c>
-      <c r="G152">
-        <v>4490</v>
-      </c>
-      <c r="H152">
-        <v>8106</v>
-      </c>
-      <c r="I152">
-        <f>15210</f>
-        <v>15210</v>
-      </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>21</v>
       </c>
-      <c r="B153">
-        <v>202280</v>
-      </c>
-      <c r="C153">
-        <v>207242</v>
-      </c>
-      <c r="D153">
-        <v>189066</v>
-      </c>
-      <c r="E153">
-        <v>220125</v>
-      </c>
-      <c r="F153">
-        <v>232817</v>
-      </c>
-      <c r="G153">
-        <v>233787</v>
-      </c>
-      <c r="H153">
-        <v>247760</v>
-      </c>
-      <c r="I153">
-        <v>267210</v>
-      </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
@@ -12858,25 +12673,25 @@
         <v>18</v>
       </c>
       <c r="B172">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="C172">
-        <v>1521</v>
+        <v>1496</v>
       </c>
       <c r="D172">
-        <v>1479</v>
+        <v>1326</v>
       </c>
       <c r="E172">
-        <v>1315</v>
+        <v>536</v>
       </c>
       <c r="F172">
-        <v>835</v>
+        <v>43</v>
       </c>
       <c r="G172">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="H172">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I172">
         <v>16</v>
@@ -12887,29 +12702,28 @@
         <v>19</v>
       </c>
       <c r="B173">
-        <v>1511</v>
+        <v>1519</v>
       </c>
       <c r="C173">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="D173">
-        <v>1484</v>
+        <v>1474</v>
       </c>
       <c r="E173">
-        <v>1459</v>
+        <v>1315</v>
       </c>
       <c r="F173">
-        <v>1380</v>
+        <v>483</v>
       </c>
       <c r="G173">
-        <v>1251</v>
+        <v>31</v>
       </c>
       <c r="H173">
-        <v>940</v>
+        <v>16</v>
       </c>
       <c r="I173">
-        <f>375</f>
-        <v>375</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -12917,29 +12731,28 @@
         <v>20</v>
       </c>
       <c r="B174">
-        <v>1481</v>
+        <v>1496</v>
       </c>
       <c r="C174">
-        <v>1468</v>
+        <v>1485</v>
       </c>
       <c r="D174">
-        <v>1471</v>
+        <v>1453</v>
       </c>
       <c r="E174">
-        <v>1451</v>
+        <v>1342</v>
       </c>
       <c r="F174">
-        <v>1437</v>
+        <v>792</v>
       </c>
       <c r="G174">
-        <v>1412</v>
+        <v>99</v>
       </c>
       <c r="H174">
-        <v>1315</v>
+        <v>16</v>
       </c>
       <c r="I174">
-        <f>1130</f>
-        <v>1130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -12947,29 +12760,28 @@
         <v>21</v>
       </c>
       <c r="B175">
-        <v>521</v>
+        <v>1478</v>
       </c>
       <c r="C175">
-        <v>508</v>
+        <v>1467</v>
       </c>
       <c r="D175">
-        <v>496</v>
+        <v>1442</v>
       </c>
       <c r="E175">
-        <v>440</v>
+        <v>1382</v>
       </c>
       <c r="F175">
-        <v>404</v>
+        <v>1160</v>
       </c>
       <c r="G175">
-        <v>390</v>
+        <v>491</v>
       </c>
       <c r="H175">
-        <v>360</v>
+        <v>81</v>
       </c>
       <c r="I175">
-        <f>290</f>
-        <v>290</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/共享调度器 on qemu性能测试 v2.0.xlsx
+++ b/共享调度器 on qemu性能测试 v2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workSpace\SharedScheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD84235-F50B-42BD-8B4C-23C2542D9398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BC832F-084A-4821-92EC-886A4AB2BDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2247,19 +2247,20 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t>线程和协程模型的吞吐量对比</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Throughput comparison of thread and coroutine model</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2276,13 +2277,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -2805,19 +2806,20 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN"/>
-                  <a:t>连接数（条）</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Connections</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2834,13 +2836,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -2869,13 +2871,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -2913,19 +2915,20 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN"/>
-                  <a:t>吞吐量（消息条数）</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2942,13 +2945,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -2976,13 +2979,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -3015,13 +3018,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -3059,7 +3062,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -3093,22 +3103,20 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>线程模型的消息时延</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Message latency of thread model</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3125,16 +3133,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -3408,22 +3413,20 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>连接数</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Connections</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3440,16 +3443,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -3478,16 +3478,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -3525,28 +3522,29 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>消息时延（</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Message latency </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>um</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>）</a:t>
                 </a:r>
               </a:p>
@@ -3565,16 +3563,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -3603,16 +3598,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -3645,16 +3637,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -3691,8 +3680,15 @@
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
-      <a:pPr>
-        <a:defRPr/>
+      <a:pPr algn="ctr">
+        <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -3726,22 +3722,20 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>协程模型的消息时延</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Message latency of croutine model</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3758,16 +3752,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -4041,22 +4032,20 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>连接数</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Connections</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4073,16 +4062,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -4111,16 +4097,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -4158,28 +4141,29 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>消息时延（</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Message latency </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>um</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>）</a:t>
                 </a:r>
               </a:p>
@@ -4198,16 +4182,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -4236,16 +4217,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -4278,16 +4256,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -4324,8 +4299,15 @@
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
-      <a:pPr>
-        <a:defRPr/>
+      <a:pPr algn="ctr">
+        <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -4358,31 +4340,39 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t>不同优先级的消息时延</a:t>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Message delays with different priorities</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -4390,17 +4380,14 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -4899,22 +4886,20 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN"/>
-                  <a:t>优先级</a:t>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Priorities</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN" cap="none" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4931,16 +4916,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -4969,16 +4951,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -5016,28 +4995,29 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN"/>
-                  <a:t>消息时延（</a:t>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Message latency </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>微秒</a:t>
+                  <a:rPr lang="zh-CN" cap="none" baseline="0"/>
+                  <a:t>（</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN"/>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>um</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" cap="none" baseline="0"/>
                   <a:t>）</a:t>
                 </a:r>
               </a:p>
@@ -5056,16 +5036,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -5094,16 +5071,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -5136,16 +5110,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -5183,7 +5154,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -5971,24 +5949,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>不同优先级的吞吐量</a:t>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Throughput of different priorities</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6004,17 +5985,14 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -6512,22 +6490,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>优先级</a:t>
+                  <a:rPr lang="en-US" cap="none" baseline="0"/>
+                  <a:t>Priorities</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN" cap="none" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6544,16 +6523,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -6582,16 +6561,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -6629,22 +6608,26 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>吞吐量</a:t>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Throughput</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6661,17 +6644,14 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -6707,9 +6687,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -6728,7 +6708,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6749,9 +6729,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -6789,7 +6769,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -11750,8 +11733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E158" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="S89" sqref="S89"/>
+    <sheetView tabSelected="1" topLeftCell="G134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S137" sqref="S137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
